--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/NEW_JERSEY_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/NEW_JERSEY_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1207"/>
+  <dimension ref="A1:D1201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C20">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C21">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C53">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C58">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C87">
@@ -1774,7 +1774,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1831,7 +1831,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C110">
@@ -2005,7 +2005,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C123">
@@ -2018,7 +2018,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C124">
@@ -2057,12 +2057,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C127">
@@ -2101,7 +2101,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C130">
@@ -2114,7 +2114,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C131">
@@ -2179,7 +2179,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C136">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C142">
@@ -2309,7 +2309,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C146">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C151">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C157">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C168">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C177">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C178">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C180">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C190">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C197">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C206">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C216">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C217">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C222">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C234">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C235">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C236">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C238">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C242">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C246">
@@ -3658,7 +3658,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C249">
@@ -3671,7 +3671,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C250">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C255">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C257">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C258">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C263">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C269">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C274">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C279">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C282">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C284">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C287">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C298">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C300">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C302">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C308">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C324">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C329">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C332">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C335">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C338">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C342">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C344">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C347">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C349">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C352">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C355">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C357">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C359">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C366">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C368">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C377">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C379">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C381">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C384">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C390">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C391">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C393">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C396">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C397">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C398">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C402">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C405">
@@ -5870,7 +5870,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C418">
@@ -6629,7 +6629,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C476">
@@ -6733,7 +6733,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C484">
@@ -6759,7 +6759,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C486">
@@ -6837,7 +6837,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C492">
@@ -6863,7 +6863,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C494">
@@ -6967,7 +6967,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C502">
@@ -7011,7 +7011,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C505">
@@ -7024,7 +7024,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C506">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C522">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C528">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C531">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C533">
@@ -7411,7 +7411,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C535">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C536">
@@ -7450,7 +7450,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C538">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C539">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C540">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C541">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C542">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C543">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C544">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C545">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C553">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C554">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C557">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C558">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C560">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C562">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C563">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C565">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C566">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C591">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C603">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C609">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C616">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C645">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C646">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C654">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C685">
@@ -10037,7 +10037,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C737">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C752">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C753">
@@ -10258,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C754">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C755">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C756">
@@ -10297,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C757">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C758">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C761">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C762">
@@ -10375,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C763">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C765">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C766">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C769">
@@ -10809,7 +10809,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C796">
@@ -10939,7 +10939,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C806">
@@ -11082,7 +11082,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C817">
@@ -11095,7 +11095,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C818">
@@ -11290,7 +11290,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C833">
@@ -11303,7 +11303,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C834">
@@ -11355,7 +11355,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C838">
@@ -11368,7 +11368,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C839">
@@ -11407,7 +11407,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C842">
@@ -11511,7 +11511,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C850">
@@ -11667,7 +11667,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C862">
@@ -11784,7 +11784,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C871">
@@ -11979,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C886">
@@ -12012,7 +12012,7 @@
         <v>148</v>
       </c>
       <c r="D888">
-        <v>0.009706190975865687</v>
+        <v>0.009706190975865689</v>
       </c>
     </row>
     <row r="889">
@@ -12031,7 +12031,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C890">
@@ -12044,7 +12044,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C891">
@@ -12109,7 +12109,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C896">
@@ -12213,7 +12213,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C904">
@@ -12226,7 +12226,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C905">
@@ -12239,7 +12239,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C906">
@@ -12317,7 +12317,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C912">
@@ -12330,7 +12330,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C913">
@@ -12343,7 +12343,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C914">
@@ -12408,7 +12408,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C919">
@@ -12577,7 +12577,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C932">
@@ -12655,7 +12655,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C938">
@@ -12855,7 +12855,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C953">
@@ -12881,7 +12881,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C955">
@@ -12894,7 +12894,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C956">
@@ -12907,7 +12907,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C957">
@@ -12933,7 +12933,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C959">
@@ -13229,7 +13229,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C981">
@@ -13421,7 +13421,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C995">
@@ -13839,7 +13839,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1026">
@@ -13917,7 +13917,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1032">
@@ -13943,7 +13943,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1034">
@@ -13956,7 +13956,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1035">
@@ -13995,7 +13995,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1038">
@@ -14047,7 +14047,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1042">
@@ -14125,7 +14125,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1048">
@@ -14164,7 +14164,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1051">
@@ -14390,7 +14390,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1068">
@@ -14429,7 +14429,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1071">
@@ -14520,7 +14520,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1078">
@@ -14546,7 +14546,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1080">
@@ -14572,7 +14572,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1082">
@@ -14741,7 +14741,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1095">
@@ -14754,7 +14754,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1096">
@@ -14897,7 +14897,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1107">
@@ -14910,7 +14910,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1108">
@@ -14962,7 +14962,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1112">
@@ -14975,7 +14975,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1113">
@@ -14988,7 +14988,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1114">
@@ -15092,7 +15092,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1122">
@@ -15144,7 +15144,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1126">
@@ -15157,7 +15157,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1127">
@@ -15183,7 +15183,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1129">
@@ -15352,7 +15352,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1142">
@@ -15365,7 +15365,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1143">
@@ -15404,7 +15404,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1146">
@@ -15495,7 +15495,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1153">
@@ -15820,7 +15820,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1178">
@@ -15911,7 +15911,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1185">
@@ -15924,7 +15924,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1186">
@@ -16137,41 +16137,6 @@
       </c>
       <c r="D1201">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
